--- a/src/test/java/com/pack/testData/Certifications.xlsx
+++ b/src/test/java/com/pack/testData/Certifications.xlsx
@@ -100,18 +100,96 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>PartnerSelectorURL</t>
+  </si>
+  <si>
+    <t>PartnerCode</t>
+  </si>
+  <si>
+    <t>UserLoginID</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>DataBaseModel</t>
+  </si>
+  <si>
+    <t>DatabaseName</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>DataBaseModel1</t>
+  </si>
+  <si>
+    <t>https://qa-partnerselector.unifocus.com/</t>
+  </si>
+  <si>
+    <t>masterqa</t>
+  </si>
+  <si>
+    <t>tmobmas1</t>
+  </si>
+  <si>
+    <t>Q@testing123</t>
+  </si>
+  <si>
+    <t>RMS Modern</t>
+  </si>
+  <si>
+    <t>QA Butterscotch Master</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>qa107</t>
+  </si>
+  <si>
+    <t>QA Butterscotch 107</t>
+  </si>
+  <si>
+    <t>Doral Golf Resort and Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masterqa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmobmas1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA Butterscotch Master
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -146,12 +224,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="bottom"/>
       <protection/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,176 +548,559 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="F4" sqref="F4" activeCellId="0"/>
+      <selection activeCell="I6" sqref="I6:X7" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1" style="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.8555" customWidth="1"/>
-    <col min="4" max="4" width="11.8555" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" width="9.17969" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" width="13" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" width="12.543" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" width="10.9062" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="34.6328" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="11.1797" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="10.8164" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="12.7266" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="13.9062" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="20.6328" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="21.8164" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="14.9062" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1" style="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8555" customWidth="1"/>
+    <col min="12" max="12" width="11.8555" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" width="9.17969" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" width="13" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" width="12.543" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" width="10.9062" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="0">
+      <c r="K2" s="0">
         <v>21</v>
       </c>
-      <c r="D2" s="0">
+      <c r="L2" s="0">
         <v>22</v>
       </c>
-      <c r="E2" s="0">
+      <c r="M2" s="0">
         <v>23</v>
       </c>
-      <c r="F2" s="0">
-        <v>24</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="N2" s="0">
+        <v>24</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="0">
-        <v>24</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="P2" s="0">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="0">
-        <v>24</v>
-      </c>
-      <c r="K2" s="0">
-        <v>24</v>
-      </c>
-      <c r="L2" s="0">
-        <v>25</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="R2" s="0">
+        <v>24</v>
+      </c>
+      <c r="S2" s="0">
+        <v>24</v>
+      </c>
+      <c r="T2" s="0">
+        <v>25</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="0">
-        <v>25</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="V2" s="0">
+        <v>25</v>
+      </c>
+      <c r="W2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="0">
+      <c r="X2" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="C3">
+      <c r="K3">
         <v>22</v>
       </c>
-      <c r="D3">
+      <c r="L3">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="P3">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
         <v>11</v>
       </c>
-      <c r="J3">
-        <v>25</v>
-      </c>
-      <c r="K3" s="0">
-        <v>25</v>
-      </c>
-      <c r="L3" s="0">
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3" s="0">
+        <v>25</v>
+      </c>
+      <c r="T3" s="0">
         <v>26</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="0">
+      <c r="V3" s="0">
         <v>26</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="0">
+      <c r="X3" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="0">
+        <v>21</v>
+      </c>
+      <c r="L4" s="0">
+        <v>22</v>
+      </c>
+      <c r="M4" s="0">
+        <v>23</v>
+      </c>
+      <c r="N4" s="0">
+        <v>24</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="0">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="0">
+        <v>24</v>
+      </c>
+      <c r="S4" s="0">
+        <v>24</v>
+      </c>
+      <c r="T4" s="0">
+        <v>25</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V4" s="0">
+        <v>25</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0">
+        <v>22</v>
+      </c>
+      <c r="L5" s="0">
+        <v>23</v>
+      </c>
+      <c r="M5" s="0">
+        <v>24</v>
+      </c>
+      <c r="N5" s="0">
+        <v>25</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="0">
+        <v>25</v>
+      </c>
+      <c r="S5" s="0">
+        <v>25</v>
+      </c>
+      <c r="T5" s="0">
+        <v>26</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="0">
+        <v>26</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="0">
+        <v>21</v>
+      </c>
+      <c r="L6" s="0">
+        <v>22</v>
+      </c>
+      <c r="M6" s="0">
+        <v>23</v>
+      </c>
+      <c r="N6" s="0">
+        <v>24</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="0">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="0">
+        <v>24</v>
+      </c>
+      <c r="S6" s="0">
+        <v>24</v>
+      </c>
+      <c r="T6" s="0">
+        <v>25</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="0">
+        <v>25</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0">
+        <v>22</v>
+      </c>
+      <c r="L7" s="0">
+        <v>23</v>
+      </c>
+      <c r="M7" s="0">
+        <v>24</v>
+      </c>
+      <c r="N7" s="0">
+        <v>25</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="0">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="0">
+        <v>25</v>
+      </c>
+      <c r="S7" s="0">
+        <v>25</v>
+      </c>
+      <c r="T7" s="0">
+        <v>26</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" s="0">
+        <v>26</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="0">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" display="koshika@gmail.com" r:id="rId1"/>
+    <hyperlink ref="F3" display="narvate@gmail.com" r:id="rId2"/>
+    <hyperlink ref="F4" display="kattera@gmail.com" r:id="rId3"/>
+    <hyperlink ref="F6" display="kattera@gmail.com" r:id="rId4"/>
+    <hyperlink ref="F7" display="kattera@gmail.com" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>